--- a/lab_13/Lab 13 PR.xlsx
+++ b/lab_13/Lab 13 PR.xlsx
@@ -169,40 +169,15 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Porównanie średniego czasu rzeczywistego do idealnego</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Rzeczywisty</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -211,7 +186,18 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4285F4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -229,6 +215,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Idealny</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -238,7 +227,18 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="EA4335"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -253,11 +253,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1797370582"/>
-        <c:axId val="1798126575"/>
+        <c:axId val="1912529606"/>
+        <c:axId val="984390187"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1797370582"/>
+        <c:axId val="1912529606"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -284,7 +284,7 @@
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>Liczba wątków</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -309,10 +309,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1798126575"/>
+        <c:crossAx val="984390187"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1798126575"/>
+        <c:axId val="984390187"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -359,7 +359,7 @@
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>Średni czas</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -367,7 +367,7 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -387,7 +387,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1797370582"/>
+        <c:crossAx val="1912529606"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -422,6 +422,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Rzeczywiste</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -430,8 +433,24 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4285F4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Calka!$A$17:$A$19</c:f>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Calka!$C$17:$C$19</c:f>
@@ -443,16 +462,36 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Idealne</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="EA4335"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="EA4335"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Calka!$A$17:$A$19</c:f>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Calka!$I$17:$I$19</c:f>
@@ -461,11 +500,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="498902604"/>
-        <c:axId val="891001996"/>
+        <c:axId val="805118459"/>
+        <c:axId val="1558067298"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="498902604"/>
+        <c:axId val="805118459"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -492,7 +531,7 @@
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>Liczba wątków</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -517,10 +556,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="891001996"/>
+        <c:crossAx val="1558067298"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="891001996"/>
+        <c:axId val="1558067298"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -535,17 +574,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -567,7 +595,7 @@
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>Przyśpieszenie</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -575,7 +603,7 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -595,7 +623,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498902604"/>
+        <c:crossAx val="805118459"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -630,6 +658,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Rzeczywista</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -638,11 +669,22 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4285F4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Calka!$G$12</c:f>
+              <c:f>Calka!$G$17:$G$19</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -656,19 +698,34 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Idealna</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng">
+            <a:ln cmpd="sng" w="19050">
               <a:solidFill>
                 <a:srgbClr val="EA4335"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="EA4335"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Calka!$G$12</c:f>
+              <c:f>Calka!$G$17:$G$19</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -679,11 +736,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="914227971"/>
-        <c:axId val="1160267036"/>
+        <c:axId val="1268107444"/>
+        <c:axId val="237525093"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="914227971"/>
+        <c:axId val="1268107444"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -710,7 +767,7 @@
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>Liczba wątków</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -718,7 +775,7 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:spPr/>
         <c:txPr>
@@ -735,10 +792,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1160267036"/>
+        <c:crossAx val="237525093"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1160267036"/>
+        <c:axId val="237525093"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,17 +810,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -785,7 +831,7 @@
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>Efektywnosc</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -793,7 +839,7 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -813,7 +859,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="914227971"/>
+        <c:crossAx val="1268107444"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -842,40 +888,15 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Porownanie sredniego czasu rzeczywistego do idealnego</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Rzeczywisty</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -884,7 +905,18 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4285F4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -902,6 +934,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Idealny</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -911,7 +946,18 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="EA4335"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -926,11 +972,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="992063280"/>
-        <c:axId val="863236590"/>
+        <c:axId val="288575633"/>
+        <c:axId val="1942621278"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="992063280"/>
+        <c:axId val="288575633"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,7 +1003,7 @@
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>Liczba procesów</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -982,10 +1028,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="863236590"/>
+        <c:crossAx val="1942621278"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="863236590"/>
+        <c:axId val="1942621278"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,7 +1078,7 @@
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>Średni czas</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1040,7 +1086,7 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1060,7 +1106,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="992063280"/>
+        <c:crossAx val="288575633"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1095,24 +1141,39 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Rzeczywiste</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="4285F4"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4285F4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>mat_vec!$B$8</c:f>
+              <c:f>mat_vec!$A$17:$A$19</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mat_vec!$C$17:$C$19</c:f>
+              <c:f>mat_vec!$D$17:$D$19</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1121,34 +1182,49 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Idealne</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="EA4335"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="EA4335"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>mat_vec!$B$8</c:f>
+              <c:f>mat_vec!$A$17:$A$19</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mat_vec!$I$17:$I$19</c:f>
+              <c:f>mat_vec!$J$17:$J$19</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="657078848"/>
-        <c:axId val="1565327500"/>
+        <c:axId val="54410594"/>
+        <c:axId val="374375386"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="657078848"/>
+        <c:axId val="54410594"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,7 +1251,7 @@
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>Liczba procesów</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1200,10 +1276,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1565327500"/>
+        <c:crossAx val="374375386"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1565327500"/>
+        <c:axId val="374375386"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,7 +1326,7 @@
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>Efektywnosc</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1258,7 +1334,7 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1278,7 +1354,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657078848"/>
+        <c:crossAx val="54410594"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1313,6 +1389,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Rzeczywiste</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -1321,11 +1400,27 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4285F4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>mat_vec!$A$17:$A$19</c:f>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mat_vec!$J$26</c:f>
+              <c:f>mat_vec!$C$17:$C$19</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1334,29 +1429,49 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Idealne</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="EA4335"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="EA4335"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>mat_vec!$A$17:$A$19</c:f>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mat_vec!$D$17:$D$19</c:f>
+              <c:f>mat_vec!$I$17:$I$19</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1178238849"/>
-        <c:axId val="1720214300"/>
+        <c:axId val="1637140860"/>
+        <c:axId val="454630810"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1178238849"/>
+        <c:axId val="1637140860"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,7 +1498,7 @@
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>Liczba procesów</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1408,10 +1523,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1720214300"/>
+        <c:crossAx val="454630810"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1720214300"/>
+        <c:axId val="454630810"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1458,7 +1573,7 @@
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>Przyspieszenie</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1466,7 +1581,7 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1486,7 +1601,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1178238849"/>
+        <c:crossAx val="1637140860"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1567,11 +1682,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:ext cx="5762625" cy="3562350"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 3" title="Wykres"/>
@@ -1597,9 +1712,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
@@ -1621,8 +1736,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
@@ -1646,10 +1761,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
@@ -2574,13 +2689,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>0.093074</v>
+        <v>0.138615</v>
       </c>
       <c r="C4" s="5">
-        <v>0.044101</v>
+        <v>0.071163</v>
       </c>
       <c r="D4" s="6">
-        <v>0.030234</v>
+        <v>0.039691</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2603,13 +2718,13 @@
     </row>
     <row r="5">
       <c r="B5" s="4">
-        <v>0.098187</v>
+        <v>0.134974</v>
       </c>
       <c r="C5" s="5">
-        <v>0.042455</v>
+        <v>0.075893</v>
       </c>
       <c r="D5" s="6">
-        <v>0.030328</v>
+        <v>0.034242</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2632,13 +2747,13 @@
     </row>
     <row r="6">
       <c r="B6" s="4">
-        <v>0.091018</v>
+        <v>0.135725</v>
       </c>
       <c r="C6" s="5">
-        <v>0.046582</v>
+        <v>0.072573</v>
       </c>
       <c r="D6" s="6">
-        <v>0.031836</v>
+        <v>0.033281</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2923,7 +3038,7 @@
       <c r="B17" s="11">
         <f>AVERAGE(B4:B6)
 </f>
-        <v>0.094093</v>
+        <v>0.136438</v>
       </c>
       <c r="C17" s="3">
         <f>B17/B17</f>
@@ -2941,7 +3056,7 @@
       <c r="H17" s="11">
         <f>AVERAGE(B4:B6)
 </f>
-        <v>0.094093</v>
+        <v>0.136438</v>
       </c>
       <c r="I17" s="3">
         <f>$H$17/H17</f>
@@ -2971,15 +3086,15 @@
       <c r="B18" s="11">
         <f>AVERAGE(C4:C6)
 </f>
-        <v>0.04437933333</v>
+        <v>0.07320966667</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ref="C18:C19" si="4">$B$17/B18</f>
-        <v>2.120198591</v>
+        <v>1.863660992</v>
       </c>
       <c r="D18" s="11">
         <f t="shared" si="1"/>
-        <v>1.060099295</v>
+        <v>0.931830496</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2988,7 +3103,7 @@
       </c>
       <c r="H18" s="11">
         <f t="shared" ref="H18:I18" si="2">$H$17/G18</f>
-        <v>0.0470465</v>
+        <v>0.068219</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="2"/>
@@ -3018,15 +3133,15 @@
       <c r="B19" s="11">
         <f>AVERAGE(D4:D6)
 </f>
-        <v>0.03079933333</v>
+        <v>0.035738</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="4"/>
-        <v>3.055033659</v>
+        <v>3.817729028</v>
       </c>
       <c r="D19" s="11">
         <f t="shared" si="1"/>
-        <v>0.7637584147</v>
+        <v>0.954432257</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -3035,7 +3150,7 @@
       </c>
       <c r="H19" s="11">
         <f t="shared" ref="H19:I19" si="5">$H$17/G19</f>
-        <v>0.02352325</v>
+        <v>0.0341095</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="5"/>
